--- a/logboekBachelorproef.xlsx
+++ b/logboekBachelorproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyva\Documents\HoGent\Tweede semester\Bachelorproef\Bachelorproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96F07E8-C527-4F84-9643-E177BA89584B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDD093E-4A7F-41B3-BC36-1ABFB30B2A03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="3624" windowWidth="8640" windowHeight="6000" xr2:uid="{D4726402-234B-4C43-9904-3DF87B0648DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4726402-234B-4C43-9904-3DF87B0648DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Wat</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Logboek aanmaken.</t>
+  </si>
+  <si>
+    <t>25.02.2019</t>
+  </si>
+  <si>
+    <t>Literatuur studie aanvullen</t>
+  </si>
+  <si>
+    <t>Bibtex updaten</t>
   </si>
 </sst>
 </file>
@@ -68,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -134,11 +143,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -153,6 +175,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,7 +500,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,12 +527,18 @@
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -591,6 +625,9 @@
       <c r="B26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/logboekBachelorproef.xlsx
+++ b/logboekBachelorproef.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyva\Documents\HoGent\Tweede semester\Bachelorproef\Bachelorproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDD093E-4A7F-41B3-BC36-1ABFB30B2A03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F228C6B-47E6-4827-9890-EF9E0EF2552C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4726402-234B-4C43-9904-3DF87B0648DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Wat</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Bibtex updaten</t>
+  </si>
+  <si>
+    <t>Literatuur lezen</t>
+  </si>
+  <si>
+    <t>26.02.2019 - 10.03.2019</t>
+  </si>
+  <si>
+    <t>Deeltje schrijven</t>
+  </si>
+  <si>
+    <t>11.02.2019</t>
   </si>
 </sst>
 </file>
@@ -160,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -174,14 +186,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,13 +521,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -514,7 +535,7 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -522,7 +543,7 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -530,7 +551,7 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -538,91 +559,99 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/logboekBachelorproef.xlsx
+++ b/logboekBachelorproef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyva\Documents\HoGent\Tweede semester\Bachelorproef\Bachelorproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F228C6B-47E6-4827-9890-EF9E0EF2552C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD09A4B-A93A-48A6-804B-6034288E33A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4726402-234B-4C43-9904-3DF87B0648DD}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8994" xr2:uid="{D4726402-234B-4C43-9904-3DF87B0648DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Wat</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>11.02.2019</t>
+  </si>
+  <si>
+    <t>Inleiding geschreven</t>
+  </si>
+  <si>
+    <t>15.03.2019</t>
+  </si>
+  <si>
+    <t>Planning opnieuw opstellen</t>
   </si>
 </sst>
 </file>
@@ -195,14 +204,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,17 +530,17 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="56.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7890625" customWidth="1"/>
+    <col min="2" max="2" width="10.1015625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -539,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -547,111 +556,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
